--- a/results/mp/tinybert/corona/confidence/84/stop-words-masking-0.1/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/84/stop-words-masking-0.1/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="76">
   <si>
     <t>anchor score</t>
   </si>
@@ -49,24 +49,30 @@
     <t>died</t>
   </si>
   <si>
+    <t>warning</t>
+  </si>
+  <si>
+    <t>crisis</t>
+  </si>
+  <si>
     <t>forced</t>
   </si>
   <si>
-    <t>crisis</t>
-  </si>
-  <si>
     <t>war</t>
   </si>
   <si>
     <t>emergency</t>
   </si>
   <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>fears</t>
+  </si>
+  <si>
     <t>panic</t>
   </si>
   <si>
-    <t>low</t>
-  </si>
-  <si>
     <t>sc</t>
   </si>
   <si>
@@ -82,135 +88,138 @@
     <t>negative</t>
   </si>
   <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>interesting</t>
   </si>
   <si>
     <t>happy</t>
   </si>
   <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
     <t>nice</t>
   </si>
   <si>
     <t>great</t>
   </si>
   <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
     <t>thanks</t>
   </si>
   <si>
     <t>special</t>
   </si>
   <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
     <t>healthy</t>
   </si>
   <si>
-    <t>positive</t>
-  </si>
-  <si>
     <t>heroes</t>
   </si>
   <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>thank</t>
+    <t>better</t>
   </si>
   <si>
     <t>ensure</t>
   </si>
   <si>
+    <t>support</t>
+  </si>
+  <si>
     <t>safety</t>
   </si>
   <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
     <t>good</t>
   </si>
   <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
     <t>confidence</t>
   </si>
   <si>
     <t>well</t>
   </si>
   <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
     <t>hand</t>
   </si>
   <si>
-    <t>credit</t>
+    <t>like</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>important</t>
   </si>
   <si>
     <t>join</t>
   </si>
   <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
     <t>energy</t>
   </si>
   <si>
+    <t>care</t>
+  </si>
+  <si>
     <t>help</t>
   </si>
   <si>
-    <t>care</t>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>sure</t>
   </si>
   <si>
     <t>please</t>
   </si>
   <si>
-    <t>important</t>
-  </si>
-  <si>
     <t>alert</t>
   </si>
   <si>
-    <t>sure</t>
+    <t>key</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>hope</t>
   </si>
   <si>
     <t>share</t>
   </si>
   <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
     <t>increase</t>
   </si>
   <si>
+    <t>shopping</t>
+  </si>
+  <si>
     <t>online</t>
   </si>
   <si>
-    <t>shopping</t>
-  </si>
-  <si>
-    <t>stock</t>
-  </si>
-  <si>
     <t>store</t>
   </si>
   <si>
@@ -220,10 +229,13 @@
     <t>consumer</t>
   </si>
   <si>
+    <t>supermarket</t>
+  </si>
+  <si>
     <t>19</t>
   </si>
   <si>
-    <t>supermarket</t>
+    <t>food</t>
   </si>
   <si>
     <t>co</t>
@@ -587,7 +599,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q52"/>
+  <dimension ref="A1:Q54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -595,10 +607,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="J1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -656,13 +668,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9117647058823529</v>
+        <v>0.9411764705882353</v>
       </c>
       <c r="C3">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D3">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -674,19 +686,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K3">
-        <v>0.9696969696969697</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="L3">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="M3">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -698,7 +710,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -727,16 +739,16 @@
         <v>7</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K4">
-        <v>0.9615384615384616</v>
+        <v>0.9545454545454546</v>
       </c>
       <c r="L4">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="M4">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -777,16 +789,16 @@
         <v>6</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K5">
-        <v>0.9545454545454546</v>
+        <v>0.9491525423728814</v>
       </c>
       <c r="L5">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="M5">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -798,7 +810,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -806,13 +818,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7241379310344828</v>
+        <v>0.76</v>
       </c>
       <c r="C6">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D6">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -824,19 +836,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K6">
-        <v>0.9347826086956522</v>
+        <v>0.9393939393939394</v>
       </c>
       <c r="L6">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="M6">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -848,7 +860,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -856,13 +868,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.6917808219178082</v>
+        <v>0.7054794520547946</v>
       </c>
       <c r="C7">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="D7">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -874,19 +886,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K7">
-        <v>0.9322033898305084</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="L7">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="M7">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -898,7 +910,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -906,7 +918,7 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.5263157894736842</v>
+        <v>0.6896551724137931</v>
       </c>
       <c r="C8">
         <v>20</v>
@@ -924,10 +936,10 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="K8">
         <v>0.8888888888888888</v>
@@ -956,37 +968,37 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.4</v>
+        <v>0.6578947368421053</v>
       </c>
       <c r="C9">
+        <v>25</v>
+      </c>
+      <c r="D9">
+        <v>25</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>13</v>
+      </c>
+      <c r="J9" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D9">
-        <v>30</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>45</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="K9">
-        <v>0.8839285714285714</v>
+        <v>0.8660714285714286</v>
       </c>
       <c r="L9">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="M9">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -998,7 +1010,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1006,13 +1018,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.3527131782945737</v>
+        <v>0.3866666666666667</v>
       </c>
       <c r="C10">
-        <v>182</v>
+        <v>29</v>
       </c>
       <c r="D10">
-        <v>182</v>
+        <v>29</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1024,19 +1036,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>334</v>
+        <v>46</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="K10">
-        <v>0.8414634146341463</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="L10">
-        <v>69</v>
+        <v>24</v>
       </c>
       <c r="M10">
-        <v>69</v>
+        <v>24</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1048,7 +1060,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1056,13 +1068,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.3154362416107382</v>
+        <v>0.3758389261744967</v>
       </c>
       <c r="C11">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="D11">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1074,19 +1086,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K11">
-        <v>0.8333333333333334</v>
+        <v>0.84375</v>
       </c>
       <c r="L11">
-        <v>30</v>
+        <v>108</v>
       </c>
       <c r="M11">
-        <v>30</v>
+        <v>108</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1098,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1106,13 +1118,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.291005291005291</v>
+        <v>0.3725490196078431</v>
       </c>
       <c r="C12">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="D12">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1124,19 +1136,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>134</v>
+        <v>32</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="K12">
-        <v>0.8148148148148148</v>
+        <v>0.8416666666666667</v>
       </c>
       <c r="L12">
-        <v>22</v>
+        <v>101</v>
       </c>
       <c r="M12">
-        <v>22</v>
+        <v>101</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1148,7 +1160,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1156,13 +1168,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.2727272727272727</v>
+        <v>0.3372093023255814</v>
       </c>
       <c r="C13">
-        <v>21</v>
+        <v>174</v>
       </c>
       <c r="D13">
-        <v>21</v>
+        <v>174</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1174,19 +1186,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>56</v>
+        <v>342</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K13">
-        <v>0.8103448275862069</v>
+        <v>0.8414634146341463</v>
       </c>
       <c r="L13">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="M13">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1198,7 +1210,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1206,13 +1218,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.1746031746031746</v>
+        <v>0.3015873015873016</v>
       </c>
       <c r="C14">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="D14">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1224,19 +1236,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>208</v>
+        <v>132</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K14">
-        <v>0.8085106382978723</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L14">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="M14">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1248,7 +1260,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1256,63 +1268,87 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.09919571045576407</v>
+        <v>0.2467532467532468</v>
       </c>
       <c r="C15">
+        <v>19</v>
+      </c>
+      <c r="D15">
+        <v>19</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>58</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K15">
+        <v>0.8275862068965517</v>
+      </c>
+      <c r="L15">
+        <v>48</v>
+      </c>
+      <c r="M15">
+        <v>48</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="A16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16">
+        <v>0.1825396825396825</v>
+      </c>
+      <c r="C16">
+        <v>46</v>
+      </c>
+      <c r="D16">
+        <v>46</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16" t="b">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>206</v>
+      </c>
+      <c r="J16" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D15">
-        <v>37</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15" t="b">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>336</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K15">
-        <v>0.8083333333333333</v>
-      </c>
-      <c r="L15">
-        <v>97</v>
-      </c>
-      <c r="M15">
-        <v>97</v>
-      </c>
-      <c r="N15">
-        <v>1</v>
-      </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
-      <c r="P15" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q15">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
-      <c r="J16" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="K16">
-        <v>0.8046875</v>
+        <v>0.8169014084507042</v>
       </c>
       <c r="L16">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="M16">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1324,21 +1360,45 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="10:17">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
+      <c r="A17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17">
+        <v>0.1018766756032172</v>
+      </c>
+      <c r="C17">
+        <v>38</v>
+      </c>
+      <c r="D17">
+        <v>38</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17" t="b">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>335</v>
+      </c>
       <c r="J17" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K17">
-        <v>0.7916666666666666</v>
+        <v>0.8148148148148148</v>
       </c>
       <c r="L17">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="M17">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1353,304 +1413,304 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="10:17">
+    <row r="18" spans="1:17">
       <c r="J18" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="K18">
-        <v>0.7843137254901961</v>
+        <v>0.8085106382978723</v>
       </c>
       <c r="L18">
+        <v>38</v>
+      </c>
+      <c r="M18">
+        <v>38</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
+      <c r="J19" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="M18">
-        <v>40</v>
-      </c>
-      <c r="N18">
-        <v>1</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-      <c r="P18" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19" spans="10:17">
-      <c r="J19" s="1" t="s">
+      <c r="K19">
+        <v>0.7936507936507936</v>
+      </c>
+      <c r="L19">
+        <v>50</v>
+      </c>
+      <c r="M19">
+        <v>50</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
+      <c r="J20" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K20">
+        <v>0.7916666666666666</v>
+      </c>
+      <c r="L20">
+        <v>19</v>
+      </c>
+      <c r="M20">
+        <v>19</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
+      <c r="J21" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K21">
+        <v>0.7735849056603774</v>
+      </c>
+      <c r="L21">
+        <v>82</v>
+      </c>
+      <c r="M21">
+        <v>82</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
+      <c r="J22" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K22">
+        <v>0.7450980392156863</v>
+      </c>
+      <c r="L22">
         <v>38</v>
       </c>
-      <c r="K19">
-        <v>0.7816901408450704</v>
-      </c>
-      <c r="L19">
-        <v>111</v>
-      </c>
-      <c r="M19">
-        <v>111</v>
-      </c>
-      <c r="N19">
-        <v>1</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-      <c r="P19" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="10:17">
-      <c r="J20" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K20">
-        <v>0.7619047619047619</v>
-      </c>
-      <c r="L20">
+      <c r="M22">
+        <v>38</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
+      <c r="J23" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K23">
+        <v>0.725</v>
+      </c>
+      <c r="L23">
+        <v>116</v>
+      </c>
+      <c r="M23">
+        <v>116</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
+      <c r="J24" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K24">
+        <v>0.7222222222222222</v>
+      </c>
+      <c r="L24">
+        <v>26</v>
+      </c>
+      <c r="M24">
+        <v>26</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
+      <c r="J25" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K25">
+        <v>0.6914893617021277</v>
+      </c>
+      <c r="L25">
+        <v>65</v>
+      </c>
+      <c r="M25">
+        <v>65</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17">
+      <c r="J26" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K26">
+        <v>0.6470588235294118</v>
+      </c>
+      <c r="L26">
+        <v>22</v>
+      </c>
+      <c r="M26">
+        <v>22</v>
+      </c>
+      <c r="N26">
+        <v>1</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17">
+      <c r="J27" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="M20">
-        <v>48</v>
-      </c>
-      <c r="N20">
-        <v>1</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="P20" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="21" spans="10:17">
-      <c r="J21" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="K21">
-        <v>0.75</v>
-      </c>
-      <c r="L21">
-        <v>120</v>
-      </c>
-      <c r="M21">
-        <v>120</v>
-      </c>
-      <c r="N21">
-        <v>1</v>
-      </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
-      <c r="P21" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q21">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="22" spans="10:17">
-      <c r="J22" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="K22">
-        <v>0.75</v>
-      </c>
-      <c r="L22">
-        <v>21</v>
-      </c>
-      <c r="M22">
-        <v>21</v>
-      </c>
-      <c r="N22">
-        <v>1</v>
-      </c>
-      <c r="O22">
-        <v>0</v>
-      </c>
-      <c r="P22" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q22">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23" spans="10:17">
-      <c r="J23" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="K23">
-        <v>0.7358490566037735</v>
-      </c>
-      <c r="L23">
-        <v>78</v>
-      </c>
-      <c r="M23">
-        <v>78</v>
-      </c>
-      <c r="N23">
-        <v>1</v>
-      </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
-      <c r="P23" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q23">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="24" spans="10:17">
-      <c r="J24" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="K24">
-        <v>0.6944444444444444</v>
-      </c>
-      <c r="L24">
-        <v>25</v>
-      </c>
-      <c r="M24">
-        <v>25</v>
-      </c>
-      <c r="N24">
-        <v>1</v>
-      </c>
-      <c r="O24">
-        <v>0</v>
-      </c>
-      <c r="P24" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q24">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="25" spans="10:17">
-      <c r="J25" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="K25">
-        <v>0.6595744680851063</v>
-      </c>
-      <c r="L25">
-        <v>62</v>
-      </c>
-      <c r="M25">
-        <v>62</v>
-      </c>
-      <c r="N25">
-        <v>1</v>
-      </c>
-      <c r="O25">
-        <v>0</v>
-      </c>
-      <c r="P25" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q25">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="26" spans="10:17">
-      <c r="J26" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="K26">
+      <c r="K27">
+        <v>0.625</v>
+      </c>
+      <c r="L27">
+        <v>30</v>
+      </c>
+      <c r="M27">
+        <v>30</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17">
+      <c r="J28" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K28">
         <v>0.6214099216710183</v>
       </c>
-      <c r="L26">
+      <c r="L28">
         <v>238</v>
       </c>
-      <c r="M26">
+      <c r="M28">
         <v>238</v>
       </c>
-      <c r="N26">
-        <v>1</v>
-      </c>
-      <c r="O26">
-        <v>0</v>
-      </c>
-      <c r="P26" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q26">
+      <c r="N28">
+        <v>1</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q28">
         <v>145</v>
       </c>
     </row>
-    <row r="27" spans="10:17">
-      <c r="J27" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="K27">
-        <v>0.6176470588235294</v>
-      </c>
-      <c r="L27">
-        <v>21</v>
-      </c>
-      <c r="M27">
-        <v>21</v>
-      </c>
-      <c r="N27">
-        <v>1</v>
-      </c>
-      <c r="O27">
-        <v>0</v>
-      </c>
-      <c r="P27" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q27">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="28" spans="10:17">
-      <c r="J28" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="K28">
-        <v>0.6046511627906976</v>
-      </c>
-      <c r="L28">
-        <v>26</v>
-      </c>
-      <c r="M28">
-        <v>26</v>
-      </c>
-      <c r="N28">
-        <v>1</v>
-      </c>
-      <c r="O28">
-        <v>0</v>
-      </c>
-      <c r="P28" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q28">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="29" spans="10:17">
+    <row r="29" spans="1:17">
       <c r="J29" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K29">
-        <v>0.6041666666666666</v>
+        <v>0.5941176470588235</v>
       </c>
       <c r="L29">
-        <v>29</v>
+        <v>202</v>
       </c>
       <c r="M29">
-        <v>29</v>
+        <v>202</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1662,12 +1722,12 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="30" spans="10:17">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17">
       <c r="J30" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K30">
         <v>0.58</v>
@@ -1691,18 +1751,18 @@
         <v>21</v>
       </c>
     </row>
-    <row r="31" spans="10:17">
+    <row r="31" spans="1:17">
       <c r="J31" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K31">
-        <v>0.5676470588235294</v>
+        <v>0.5777777777777777</v>
       </c>
       <c r="L31">
-        <v>193</v>
+        <v>26</v>
       </c>
       <c r="M31">
-        <v>193</v>
+        <v>26</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1714,21 +1774,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="32" spans="10:17">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17">
       <c r="J32" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K32">
-        <v>0.55</v>
+        <v>0.5581395348837209</v>
       </c>
       <c r="L32">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M32">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1740,21 +1800,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K33">
-        <v>0.5322033898305085</v>
+        <v>0.55</v>
       </c>
       <c r="L33">
-        <v>157</v>
+        <v>22</v>
       </c>
       <c r="M33">
-        <v>157</v>
+        <v>22</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1766,12 +1826,12 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>138</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K34">
         <v>0.5280898876404494</v>
@@ -1797,16 +1857,16 @@
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K35">
-        <v>0.4769874476987448</v>
+        <v>0.5152542372881356</v>
       </c>
       <c r="L35">
-        <v>114</v>
+        <v>152</v>
       </c>
       <c r="M35">
-        <v>114</v>
+        <v>152</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1818,21 +1878,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>125</v>
+        <v>143</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K36">
-        <v>0.4666666666666667</v>
+        <v>0.5</v>
       </c>
       <c r="L36">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M36">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1844,21 +1904,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K37">
-        <v>0.4523809523809524</v>
+        <v>0.46875</v>
       </c>
       <c r="L37">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="M37">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1870,21 +1930,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>23</v>
+        <v>34</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K38">
-        <v>0.4375</v>
+        <v>0.4560669456066946</v>
       </c>
       <c r="L38">
-        <v>28</v>
+        <v>109</v>
       </c>
       <c r="M38">
-        <v>28</v>
+        <v>109</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1896,21 +1956,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>36</v>
+        <v>130</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K39">
-        <v>0.4</v>
+        <v>0.4523809523809524</v>
       </c>
       <c r="L39">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="M39">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -1922,47 +1982,47 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>42</v>
+        <v>23</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K40">
-        <v>0.4</v>
+        <v>0.4468085106382979</v>
       </c>
       <c r="L40">
+        <v>21</v>
+      </c>
+      <c r="M40">
+        <v>21</v>
+      </c>
+      <c r="N40">
+        <v>1</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+      <c r="P40" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q40">
         <v>26</v>
-      </c>
-      <c r="M40">
-        <v>26</v>
-      </c>
-      <c r="N40">
-        <v>1</v>
-      </c>
-      <c r="O40">
-        <v>0</v>
-      </c>
-      <c r="P40" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q40">
-        <v>39</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="K41">
-        <v>0.3972602739726027</v>
+        <v>0.4383561643835616</v>
       </c>
       <c r="L41">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="M41">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -1974,21 +2034,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K42">
-        <v>0.3846153846153846</v>
+        <v>0.4153846153846154</v>
       </c>
       <c r="L42">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="M42">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2000,21 +2060,21 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>48</v>
+        <v>38</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K43">
-        <v>0.1076555023923445</v>
+        <v>0.4</v>
       </c>
       <c r="L43">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="M43">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2026,21 +2086,21 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>373</v>
+        <v>42</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="K44">
-        <v>0.08413461538461539</v>
+        <v>0.3974358974358974</v>
       </c>
       <c r="L44">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="M44">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2052,21 +2112,21 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>381</v>
+        <v>47</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="K45">
-        <v>0.06116207951070336</v>
+        <v>0.1033653846153846</v>
       </c>
       <c r="L45">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="M45">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2078,21 +2138,21 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>307</v>
+        <v>373</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="K46">
-        <v>0.05592841163310962</v>
+        <v>0.09808612440191387</v>
       </c>
       <c r="L46">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="M46">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2104,21 +2164,21 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>844</v>
+        <v>377</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K47">
-        <v>0.04439511653718091</v>
+        <v>0.06487695749440715</v>
       </c>
       <c r="L47">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="M47">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2130,137 +2190,189 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>861</v>
+        <v>836</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="K48">
-        <v>0.02936630602782071</v>
+        <v>0.04439511653718091</v>
       </c>
       <c r="L48">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="M48">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="N48">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="O48">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="P48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q48">
-        <v>628</v>
+        <v>861</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="K49">
-        <v>0.02803738317757009</v>
+        <v>0.03389830508474576</v>
       </c>
       <c r="L49">
-        <v>60</v>
+        <v>22</v>
       </c>
       <c r="M49">
-        <v>63</v>
+        <v>23</v>
       </c>
       <c r="N49">
-        <v>0.95</v>
+        <v>0.96</v>
       </c>
       <c r="O49">
-        <v>0.05000000000000004</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P49" t="b">
         <v>1</v>
       </c>
       <c r="Q49">
-        <v>2080</v>
+        <v>627</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="K50">
-        <v>0.02655889145496536</v>
+        <v>0.03229527104959631</v>
       </c>
       <c r="L50">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="M50">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="N50">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O50">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q50">
-        <v>843</v>
+        <v>839</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K51">
-        <v>0.01449742268041237</v>
+        <v>0.02807674309780065</v>
       </c>
       <c r="L51">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="M51">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="N51">
-        <v>0.9399999999999999</v>
+        <v>0.91</v>
       </c>
       <c r="O51">
-        <v>0.06000000000000005</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="P51" t="b">
         <v>1</v>
       </c>
       <c r="Q51">
-        <v>3059</v>
+        <v>2077</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K52">
-        <v>0.007191994996873046</v>
+        <v>0.01962809917355372</v>
       </c>
       <c r="L52">
+        <v>19</v>
+      </c>
+      <c r="M52">
+        <v>19</v>
+      </c>
+      <c r="N52">
+        <v>1</v>
+      </c>
+      <c r="O52">
+        <v>0</v>
+      </c>
+      <c r="P52" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q52">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="53" spans="10:17">
+      <c r="J53" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K53">
+        <v>0.01483392454047082</v>
+      </c>
+      <c r="L53">
+        <v>46</v>
+      </c>
+      <c r="M53">
+        <v>52</v>
+      </c>
+      <c r="N53">
+        <v>0.88</v>
+      </c>
+      <c r="O53">
+        <v>0.12</v>
+      </c>
+      <c r="P53" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q53">
+        <v>3055</v>
+      </c>
+    </row>
+    <row r="54" spans="10:17">
+      <c r="J54" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K54">
+        <v>0.007201001878522229</v>
+      </c>
+      <c r="L54">
         <v>23</v>
       </c>
-      <c r="M52">
-        <v>26</v>
-      </c>
-      <c r="N52">
-        <v>0.88</v>
-      </c>
-      <c r="O52">
-        <v>0.12</v>
-      </c>
-      <c r="P52" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q52">
-        <v>3175</v>
+      <c r="M54">
+        <v>30</v>
+      </c>
+      <c r="N54">
+        <v>0.77</v>
+      </c>
+      <c r="O54">
+        <v>0.23</v>
+      </c>
+      <c r="P54" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q54">
+        <v>3171</v>
       </c>
     </row>
   </sheetData>
